--- a/Bug report on Calendar.xlsx
+++ b/Bug report on Calendar.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olga\Desktop\Ольга\Тестовые задания\Открытый код\TestisgBugs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -29,9 +37,6 @@
   </si>
   <si>
     <t>ФР</t>
-  </si>
-  <si>
-    <t>видео/скриншот</t>
   </si>
   <si>
     <t>Приоритет</t>
@@ -79,7 +84,8 @@
     <t>Major</t>
   </si>
   <si>
-    <t>плавающий баг</t>
+    <t>плавающий баг! 
+интервал часов выходит выше за пределы 24, но не выше 60</t>
   </si>
   <si>
     <t>bg-02</t>
@@ -102,22 +108,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Программа выводит дату из указанного диапазона в формате </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t xml:space="preserve">d.m.y (2010-01-01) </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>и время (HH.MM.SS.MSS)</t>
     </r>
@@ -137,29 +146,33 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Поле принимает неверный формат даты. В поле можно ввести </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>1.01.2010</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">, а должно быть </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <color rgb="FFFF0000"/>
       </rPr>
       <t>01.01.2010</t>
     </r>
@@ -183,78 +196,56 @@
     <t>http://joxi.ru/V2Vx766UGYBV5r</t>
   </si>
   <si>
-    <t>bg-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дата. Поле ввода. Ввод стрелками с клавиатуры </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Когда поле ввода пустое, при нажатии стрелок на клавиатуре "Вверх","Влево", "Вправо", оно принимает значение одного из полей находящееся выше  </t>
-  </si>
-  <si>
-    <t>Предусловия:
-1. ПО запущено
-Шаги:
-1. Ввести любое значение в поле ввода начальной даты
-2. Перейти на поле ввода конечной даты
-2. Нажать на клавиатуре стрелку вверх</t>
-  </si>
-  <si>
-    <t>Ничего не происходит, поле пустое</t>
-  </si>
-  <si>
-    <t>Поле принимает значение введенное выше него</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rd4VTcQeM-qAwXbnVOzN5uBmXbPWYqic/view</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>Баг работает, только если есть введенные даты выше. Участвуют все стрелки кроме стрелки "ВЛЕВО".
-Стрелками можно по порядку перебирать только введенные значения</t>
+    <t>Видео/скриншот</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -263,7 +254,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -279,139 +270,152 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -601,32 +605,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.25"/>
-    <col customWidth="1" min="2" max="2" width="18.5"/>
-    <col customWidth="1" min="3" max="3" width="22.63"/>
-    <col customWidth="1" min="4" max="4" width="35.38"/>
-    <col customWidth="1" min="5" max="5" width="22.63"/>
-    <col customWidth="1" min="6" max="6" width="22.13"/>
-    <col customWidth="1" min="7" max="7" width="18.63"/>
-    <col customWidth="1" min="8" max="8" width="12.88"/>
-    <col customWidth="1" min="9" max="9" width="14.38"/>
-    <col customWidth="1" min="10" max="10" width="33.0"/>
+    <col min="1" max="1" width="7.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="33" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,245 +649,212 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:J2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G3"/>
-    <hyperlink r:id="rId2" ref="G4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>